--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/PackagedProductDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/PackagedProductDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -571,7 +571,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/packagedProductIdSystems</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/packagedProductIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -667,13 +667,13 @@
     <t>A high level category e.g. medicinal product, raw material, shipping/transport container, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/packageType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/packageType</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -799,7 +799,7 @@
     <t>The actual status of supply. Conveys in what situation this package type may be supplied for use.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/legalStatusOfSupply</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/legalStatusOfSupply</t>
   </si>
   <si>
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction</t>
@@ -872,7 +872,7 @@
     <t>This attribute provides information on the status of the marketing of the medicinal product See ISO/TS 20443 for more information and examples.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/marketingStatus</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/marketingStatus</t>
   </si>
   <si>
     <t>MarketingStatus.status</t>
@@ -933,7 +933,7 @@
     <t>PackagedProductDefinition.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -1007,7 +1007,7 @@
     <t>PackagedProductDefinition.packaging.identifier.system</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/dataCarrierIdSystem</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/dataCarrierIdSystem</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.identifier.value</t>
@@ -1028,7 +1028,7 @@
     <t>The physical type of the container of the items.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/secondaryPrimaryPackType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/secondaryPrimaryPackType</t>
   </si>
   <si>
     <t>Package Item (Container).Package Item (Container) Type</t>
@@ -1059,7 +1059,7 @@
     <t>Material type of the package item.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/packageMaterial</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/packageMaterial</t>
   </si>
   <si>
     <t>Package Item (Container).Material</t>
@@ -1114,7 +1114,7 @@
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/shelfLifeType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/shelfLifeType</t>
   </si>
   <si>
     <t>ProductShelfLife.type</t>
@@ -1257,7 +1257,7 @@
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/unitofMeasure</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/unitofMeasure</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -1275,7 +1275,7 @@
     <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/specialPrecautionsForStorage</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/specialPrecautionsForStorage</t>
   </si>
   <si>
     <t>ProductShelfLife.specialPrecautionsForStorage</t>
@@ -1372,7 +1372,7 @@
     <t>PackagedProductDefinition.packaging.containedItem.item</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ManufacturedItemDefinition-uv-epi|DeviceDefinition)
+    <t xml:space="preserve">CodeableReference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ManufacturedItemDefinition-uv-epi|DeviceDefinition)
 </t>
   </si>
   <si>
@@ -1742,7 +1742,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.9921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.83984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -442,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -519,7 +519,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -596,7 +596,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-ballot/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -899,24 +899,6 @@
     <t>MarketingStatus.restoreDate</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.characteristic</t>
-  </si>
-  <si>
-    <t>Allows the key features to be recorded, such as "hospital pack", "nurse prescribable"</t>
-  </si>
-  <si>
-    <t>Allows the key features to be recorded, such as "hospital pack", "nurse prescribable", "calendar pack".</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A characteristic of a package.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/package-characteristic</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.copackagedIndicator</t>
   </si>
   <si>
@@ -1037,6 +1019,21 @@
     <t>Package Item (Container).Package Item (Container) Type</t>
   </si>
   <si>
+    <t>PackagedProductDefinition.packaging.componentPart</t>
+  </si>
+  <si>
+    <t>Is this a part of the packaging (e.g. a cap or bottle stopper), rather than the packaging itself (e.g. a bottle or vial)</t>
+  </si>
+  <si>
+    <t>Is this a part of the packaging (e.g. a cap or bottle stopper), rather than the packaging itself (e.g. a bottle or vial). The latter type are designed be a container, but the former are not.</t>
+  </si>
+  <si>
+    <t>If absent, it cannot be assumed that the item is packaging (a container) or a part of the packaging - it is just 'packaging'. Systems can sometimes infer this from the packaging.type (e.g. bottles are containers, bottle caps are not), or from the fact that a container will usually have other items within it (though it is possible that these exist but are not mentioned). Often the distinction is not critical - and can easily be understood by humans - but if that is necessary for machine processing it is recommended that this attribute is given a value.</t>
+  </si>
+  <si>
+    <t>Whether this packaging item corresponds to an Package Item (Container), if false, or a Package (Component), when true</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.packaging.quantity</t>
   </si>
   <si>
@@ -1077,6 +1074,9 @@
     <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material (e.g. different types of plastic for a blister sleeve).</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>A material used in the construction of packages and their components.</t>
   </si>
   <si>
@@ -1211,7 +1211,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1430,10 +1430,19 @@
     <t>Used to nest layers of packaging; e.g., outside to inside with secondary package and then primary package)</t>
   </si>
   <si>
-    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
+    <t>Allows containers (and parts of containers) within containers, still as a part of a single packaged product. See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
   </si>
   <si>
     <t>(link from Package Item (Container) to itself)</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.characteristic</t>
+  </si>
+  <si>
+    <t>Allows the key features to be recorded, such as "hospital pack", "nurse prescribable"</t>
+  </si>
+  <si>
+    <t>Allows the key features to be recorded, such as "hospital pack", "nurse prescribable", "calendar pack".</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM91"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1780,7 +1789,7 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="96.40234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="112.23828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
@@ -6310,7 +6319,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6322,20 +6331,22 @@
         <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="R42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6355,13 +6366,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6385,7 +6396,7 @@
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
@@ -6405,10 +6416,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6419,7 +6430,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6431,22 +6442,20 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q43" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6490,13 +6499,13 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
@@ -6505,7 +6514,7 @@
         <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>150</v>
+        <v>293</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6516,10 +6525,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6542,13 +6551,13 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6599,7 +6608,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6614,7 +6623,7 @@
         <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6625,10 +6634,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6639,7 +6648,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6651,13 +6660,13 @@
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6708,13 +6717,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
@@ -6723,7 +6732,7 @@
         <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6734,10 +6743,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6757,16 +6766,16 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6817,7 +6826,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>304</v>
+        <v>149</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6829,35 +6838,35 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6869,15 +6878,17 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6926,19 +6937,19 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6952,14 +6963,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6972,24 +6983,26 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7037,7 +7050,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7058,23 +7071,23 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -7083,26 +7096,22 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7150,7 +7159,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7162,24 +7171,24 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7187,10 +7196,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7199,16 +7208,16 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7259,47 +7268,47 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7311,15 +7320,17 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7356,31 +7367,31 @@
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7394,44 +7405,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7455,43 +7468,41 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7500,15 +7511,15 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7525,25 +7536,25 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7568,11 +7579,11 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7590,7 +7601,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7616,10 +7627,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7627,7 +7638,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>83</v>
@@ -7642,19 +7653,19 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7667,7 +7678,7 @@
         <v>74</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>74</v>
@@ -7679,11 +7690,11 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7701,7 +7712,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7722,15 +7733,15 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7753,20 +7764,18 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7778,7 +7787,7 @@
         <v>74</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>74</v>
@@ -7790,11 +7799,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7812,7 +7823,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7833,15 +7844,15 @@
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7849,7 +7860,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>83</v>
@@ -7864,17 +7875,15 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7887,7 +7896,7 @@
         <v>74</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>74</v>
@@ -7923,7 +7932,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7944,15 +7953,15 @@
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7975,15 +7984,17 @@
         <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8032,7 +8043,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8053,15 +8064,15 @@
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8084,17 +8095,15 @@
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -8119,13 +8128,11 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8143,7 +8150,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8158,21 +8165,21 @@
         <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8195,20 +8202,22 @@
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="R59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8228,11 +8237,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8250,7 +8261,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8265,7 +8276,7 @@
         <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8276,10 +8287,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8302,13 +8313,13 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8359,7 +8370,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8374,7 +8385,7 @@
         <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8385,10 +8396,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8414,10 +8425,10 @@
         <v>167</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8448,7 +8459,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8466,7 +8477,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8481,7 +8492,7 @@
         <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8492,10 +8503,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8521,10 +8532,10 @@
         <v>167</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8551,7 +8562,7 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="Y62" t="s" s="2">
         <v>342</v>
@@ -8575,7 +8586,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -10278,7 +10289,7 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>418</v>
@@ -10862,7 +10873,7 @@
         <v>74</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="Y83" t="s" s="2">
         <v>431</v>
@@ -11785,6 +11796,115 @@
         <v>74</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A medically related item or items, in a container or package</t>
@@ -1941,13 +1945,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2013,21 +2017,21 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2038,7 +2042,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -2047,19 +2051,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2109,13 +2113,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -2135,10 +2139,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2149,7 +2153,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -2158,16 +2162,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2218,19 +2222,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2244,10 +2248,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2258,28 +2262,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2329,19 +2333,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2355,10 +2359,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2369,7 +2373,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2381,16 +2385,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2416,13 +2420,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2440,19 +2444,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2466,21 +2470,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2492,16 +2496,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2551,19 +2555,19 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2572,19 +2576,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2603,16 +2607,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2662,7 +2666,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2683,19 +2687,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2714,16 +2718,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2773,7 +2777,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2785,7 +2789,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2794,19 +2798,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2819,25 +2823,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2886,7 +2890,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2898,7 +2902,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2907,15 +2911,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2935,16 +2939,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2995,7 +2999,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3007,13 +3011,13 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -3021,10 +3025,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3035,7 +3039,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3047,13 +3051,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3104,13 +3108,13 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
@@ -3125,19 +3129,19 @@
         <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3156,16 +3160,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3203,19 +3207,19 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3227,7 +3231,7 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -3236,15 +3240,15 @@
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3255,31 +3259,31 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -3304,11 +3308,11 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3326,19 +3330,19 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -3347,15 +3351,15 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3366,7 +3370,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3375,22 +3379,22 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3415,11 +3419,11 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3437,19 +3441,19 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -3458,15 +3462,15 @@
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3474,10 +3478,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3486,22 +3490,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3514,7 +3518,7 @@
         <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>74</v>
@@ -3526,11 +3530,11 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3548,19 +3552,19 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3569,15 +3573,15 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3585,10 +3589,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3597,19 +3601,19 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3623,7 +3627,7 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3659,19 +3663,19 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3680,15 +3684,15 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3699,7 +3703,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3708,16 +3712,16 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3768,19 +3772,19 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3789,15 +3793,15 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3808,7 +3812,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3817,19 +3821,19 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3879,19 +3883,19 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3900,15 +3904,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3919,7 +3923,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3928,16 +3932,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3952,7 +3956,7 @@
         <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>74</v>
@@ -3988,22 +3992,22 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -4014,10 +4018,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4028,7 +4032,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -4037,16 +4041,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4073,11 +4077,11 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -4095,22 +4099,22 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -4121,10 +4125,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4144,16 +4148,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4204,7 +4208,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4216,10 +4220,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4230,10 +4234,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4244,25 +4248,25 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4277,7 +4281,7 @@
         <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>74</v>
@@ -4289,13 +4293,13 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -4313,22 +4317,22 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4339,10 +4343,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4353,7 +4357,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4362,16 +4366,16 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4386,7 +4390,7 @@
         <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>74</v>
@@ -4422,22 +4426,22 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4448,10 +4452,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4471,16 +4475,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4531,7 +4535,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4543,10 +4547,10 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4557,10 +4561,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4571,7 +4575,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4580,16 +4584,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4640,22 +4644,22 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4666,10 +4670,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4689,16 +4693,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4749,7 +4753,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4761,10 +4765,10 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4775,10 +4779,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4789,7 +4793,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4801,13 +4805,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4858,13 +4862,13 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
@@ -4879,19 +4883,19 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4910,16 +4914,16 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4969,7 +4973,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4981,7 +4985,7 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4990,19 +4994,19 @@
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5015,25 +5019,25 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5082,7 +5086,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5094,7 +5098,7 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -5103,15 +5107,15 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5122,7 +5126,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5131,16 +5135,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5167,11 +5171,11 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5189,22 +5193,22 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5215,10 +5219,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5229,7 +5233,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5238,16 +5242,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5274,11 +5278,11 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5296,22 +5300,22 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5322,10 +5326,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5345,16 +5349,16 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5405,7 +5409,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5417,10 +5421,10 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5431,10 +5435,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5445,7 +5449,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5457,13 +5461,13 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5514,13 +5518,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
@@ -5535,19 +5539,19 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5566,16 +5570,16 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5613,19 +5617,19 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5637,7 +5641,7 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5646,19 +5650,19 @@
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5671,25 +5675,25 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5738,7 +5742,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5750,7 +5754,7 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5759,15 +5763,15 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5778,7 +5782,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5787,16 +5791,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5823,11 +5827,11 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5845,19 +5849,19 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5871,10 +5875,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5885,7 +5889,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5894,16 +5898,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5954,19 +5958,19 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5980,10 +5984,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5991,10 +5995,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6003,16 +6007,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6039,11 +6043,11 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6061,19 +6065,19 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -6087,10 +6091,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6101,7 +6105,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6110,16 +6114,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6170,19 +6174,19 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6196,10 +6200,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6210,7 +6214,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6219,16 +6223,16 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6279,19 +6283,19 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6305,10 +6309,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6319,7 +6323,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6328,16 +6332,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6345,7 +6349,7 @@
         <v>74</v>
       </c>
       <c r="Q42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>74</v>
@@ -6390,22 +6394,22 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6416,10 +6420,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6439,16 +6443,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6499,7 +6503,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6511,10 +6515,10 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6525,10 +6529,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6548,16 +6552,16 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6608,7 +6612,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6620,10 +6624,10 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6634,10 +6638,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6648,7 +6652,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6657,16 +6661,16 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6717,22 +6721,22 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6743,10 +6747,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6757,7 +6761,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6769,13 +6773,13 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6826,13 +6830,13 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
@@ -6847,19 +6851,19 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6878,16 +6882,16 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6937,7 +6941,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6949,7 +6953,7 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6958,19 +6962,19 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6983,25 +6987,25 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7050,7 +7054,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7062,7 +7066,7 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -7071,15 +7075,15 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7087,7 +7091,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -7099,16 +7103,16 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7159,7 +7163,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7171,10 +7175,10 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7185,10 +7189,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7199,7 +7203,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7211,13 +7215,13 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7268,13 +7272,13 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
@@ -7289,19 +7293,19 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7320,16 +7324,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7367,19 +7371,19 @@
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7391,7 +7395,7 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7400,15 +7404,15 @@
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7419,31 +7423,31 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7468,11 +7472,11 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7490,19 +7494,19 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7511,15 +7515,15 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7530,7 +7534,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7539,22 +7543,22 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7579,11 +7583,11 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7601,19 +7605,19 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
@@ -7622,15 +7626,15 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7638,10 +7642,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7650,22 +7654,22 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7678,7 +7682,7 @@
         <v>74</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>74</v>
@@ -7690,11 +7694,11 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7712,19 +7716,19 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7733,15 +7737,15 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7749,10 +7753,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7761,19 +7765,19 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7787,7 +7791,7 @@
         <v>74</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>74</v>
@@ -7823,19 +7827,19 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7844,15 +7848,15 @@
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7863,7 +7867,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7872,16 +7876,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7932,19 +7936,19 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -7953,15 +7957,15 @@
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7972,7 +7976,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -7981,19 +7985,19 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8043,19 +8047,19 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -8064,15 +8068,15 @@
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8083,7 +8087,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8092,16 +8096,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8128,11 +8132,11 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8150,22 +8154,22 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8176,10 +8180,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8190,7 +8194,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8199,16 +8203,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8216,7 +8220,7 @@
         <v>74</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>74</v>
@@ -8261,22 +8265,22 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8287,10 +8291,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8301,7 +8305,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8310,16 +8314,16 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8370,22 +8374,22 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8396,10 +8400,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8419,16 +8423,16 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8455,11 +8459,11 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8477,7 +8481,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8489,10 +8493,10 @@
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8503,10 +8507,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8526,16 +8530,16 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8562,13 +8566,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8586,7 +8590,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8598,10 +8602,10 @@
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8612,10 +8616,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8635,16 +8639,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8695,7 +8699,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8707,10 +8711,10 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8721,10 +8725,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8735,7 +8739,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8747,13 +8751,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8804,13 +8808,13 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
@@ -8825,19 +8829,19 @@
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8856,16 +8860,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8903,19 +8907,19 @@
         <v>74</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -8927,7 +8931,7 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -8936,19 +8940,19 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8961,25 +8965,25 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9028,7 +9032,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9040,7 +9044,7 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -9049,15 +9053,15 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9068,7 +9072,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -9077,16 +9081,16 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9113,11 +9117,11 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9135,19 +9139,19 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -9161,10 +9165,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9175,7 +9179,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9184,16 +9188,16 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9232,29 +9236,29 @@
         <v>74</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -9268,13 +9272,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -9284,7 +9288,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9293,16 +9297,16 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9353,19 +9357,19 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
@@ -9379,10 +9383,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9393,7 +9397,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9405,13 +9409,13 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9462,13 +9466,13 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
@@ -9483,19 +9487,19 @@
         <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9514,16 +9518,16 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9561,19 +9565,19 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9585,7 +9589,7 @@
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
@@ -9594,15 +9598,15 @@
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9613,7 +9617,7 @@
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -9622,22 +9626,22 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9686,19 +9690,19 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
@@ -9707,15 +9711,15 @@
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9726,35 +9730,35 @@
         <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>74</v>
@@ -9775,11 +9779,11 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -9797,19 +9801,19 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>74</v>
@@ -9818,15 +9822,15 @@
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9837,7 +9841,7 @@
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -9846,20 +9850,20 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -9908,19 +9912,19 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
@@ -9929,15 +9933,15 @@
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9948,7 +9952,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -9957,20 +9961,20 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10019,19 +10023,19 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
@@ -10040,15 +10044,15 @@
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10059,7 +10063,7 @@
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -10068,22 +10072,22 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10108,11 +10112,11 @@
         <v>74</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>74</v>
@@ -10130,19 +10134,19 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -10151,15 +10155,15 @@
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10179,16 +10183,16 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10215,11 +10219,11 @@
         <v>74</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>74</v>
@@ -10237,7 +10241,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10249,7 +10253,7 @@
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
@@ -10263,10 +10267,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10286,16 +10290,16 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10346,7 +10350,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10358,10 +10362,10 @@
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>74</v>
@@ -10372,10 +10376,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10395,16 +10399,16 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10455,7 +10459,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10467,10 +10471,10 @@
         <v>74</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>74</v>
@@ -10481,10 +10485,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10495,7 +10499,7 @@
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -10507,13 +10511,13 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10564,13 +10568,13 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>74</v>
@@ -10585,19 +10589,19 @@
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10616,16 +10620,16 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10675,7 +10679,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -10687,7 +10691,7 @@
         <v>74</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>74</v>
@@ -10696,19 +10700,19 @@
         <v>74</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10721,25 +10725,25 @@
         <v>74</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -10788,7 +10792,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -10800,7 +10804,7 @@
         <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10809,15 +10813,15 @@
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10825,10 +10829,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>74</v>
@@ -10837,16 +10841,16 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10873,13 +10877,13 @@
         <v>74</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>74</v>
@@ -10897,22 +10901,22 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
@@ -10923,10 +10927,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10937,7 +10941,7 @@
         <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>74</v>
@@ -10946,16 +10950,16 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11006,22 +11010,22 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>74</v>
@@ -11032,10 +11036,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11055,16 +11059,16 @@
         <v>74</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11115,7 +11119,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11127,10 +11131,10 @@
         <v>74</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>74</v>
@@ -11141,10 +11145,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11155,7 +11159,7 @@
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
@@ -11167,13 +11171,13 @@
         <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11224,13 +11228,13 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>74</v>
@@ -11245,19 +11249,19 @@
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11276,16 +11280,16 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11335,7 +11339,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11347,7 +11351,7 @@
         <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>74</v>
@@ -11356,19 +11360,19 @@
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11381,25 +11385,25 @@
         <v>74</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>74</v>
@@ -11448,7 +11452,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11460,7 +11464,7 @@
         <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>
@@ -11469,15 +11473,15 @@
         <v>74</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11485,10 +11489,10 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>74</v>
@@ -11497,16 +11501,16 @@
         <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11557,22 +11561,22 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
@@ -11583,10 +11587,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11597,7 +11601,7 @@
         <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>74</v>
@@ -11606,16 +11610,16 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11666,22 +11670,22 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -11692,10 +11696,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11715,16 +11719,16 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11775,7 +11779,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -11787,10 +11791,10 @@
         <v>74</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
@@ -11801,10 +11805,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11824,16 +11828,16 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11884,7 +11888,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -11896,10 +11900,10 @@
         <v>74</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-snapshot3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,10 +228,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
     <t>Mapping: IDMP Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -256,13 +256,13 @@
     <t>A medically related item or items, in a container or package.</t>
   </si>
   <si>
+    <t>administrative.medication</t>
+  </si>
+  <si>
     <t>Packaged Medicinal Product</t>
   </si>
   <si>
-    <t>administrative.medication</t>
-  </si>
-  <si>
-    <t>Entity. Role, or Act</t>
+    <t>Entity, Role, or Act</t>
   </si>
   <si>
     <t>PackagedProductDefinition.id</t>
@@ -323,7 +323,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -345,13 +345,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>IETF language tag</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -380,6 +380,10 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
@@ -406,6 +410,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -423,7 +431,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -442,11 +450,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,12 +473,12 @@
     <t>A unique identifier for this package as whole - not the the content of the package. Unique instance identifiers assigned to a package by manufacturers, regulators, drug catalogue custodians or other organizations.</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>Packaged Medicinal Product.PCID</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.identifier.id</t>
   </si>
   <si>
@@ -483,13 +491,17 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
     <t>PackagedProductDefinition.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -520,10 +532,10 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -554,6 +566,9 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
@@ -566,7 +581,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -600,13 +615,17 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -672,6 +691,9 @@
   </si>
   <si>
     <t>A high level category e.g. medicinal product, raw material, shipping/transport container, etc.</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/packageType</t>
@@ -771,7 +793,7 @@
     <t>The legal status of supply of the packaged item as classified by the regulator.</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Legal Status of Supply (for a package)</t>
+    <t>Marketing Authorization.Legal Status of Supply (for a package)</t>
   </si>
   <si>
     <t>PackagedProductDefinition.legalStatusOfSupply.id</t>
@@ -790,7 +812,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -849,10 +871,10 @@
     <t>PackagedProductDefinition.marketingStatus.country</t>
   </si>
   <si>
-    <t>The country in which the marketing authorisation has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements</t>
-  </si>
-  <si>
-    <t>The country in which the marketing authorisation has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements.</t>
+    <t>The country in which the marketing authorization has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements</t>
+  </si>
+  <si>
+    <t>The country in which the marketing authorization has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements.</t>
   </si>
   <si>
     <t>MarketingStatus.country</t>
@@ -861,10 +883,10 @@
     <t>PackagedProductDefinition.marketingStatus.jurisdiction</t>
   </si>
   <si>
-    <t>Where a Medicines Regulatory Agency has granted a marketing authorisation for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified</t>
-  </si>
-  <si>
-    <t>Where a Medicines Regulatory Agency has granted a marketing authorisation for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified.</t>
+    <t>Where a Medicines Regulatory Agency has granted a marketing authorization for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Where a Medicines Regulatory Agency has granted a marketing authorization for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
     <t>MarketingStatus.jurisdiction</t>
@@ -888,10 +910,10 @@
     <t>PackagedProductDefinition.marketingStatus.dateRange</t>
   </si>
   <si>
-    <t>The date when the Medicinal Product is placed on the market by the Marketing Authorisation Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain</t>
-  </si>
-  <si>
-    <t>The date when the Medicinal Product is placed on the market by the Marketing Authorisation Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain.</t>
+    <t>The date when the Medicinal Product is placed on the market by the Marketing Authorization Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain</t>
+  </si>
+  <si>
+    <t>The date when the Medicinal Product is placed on the market by the Marketing Authorization Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain.</t>
   </si>
   <si>
     <t>MarketingStatus.dateRange</t>
@@ -1215,7 +1237,10 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-snapshot3</t>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1419,10 +1444,10 @@
     <t>PackagedProductDefinition.packaging.containedItem.amount</t>
   </si>
   <si>
-    <t>The number of this type of item within this packaging</t>
-  </si>
-  <si>
-    <t>The number of this type of item within this packaging.</t>
+    <t>The number of this type of item within this packaging or for continuous items such as liquids it is the quantity (for example 25ml). See also PackagedProductDefinition.containedItemQuantity (especially the long definition)</t>
+  </si>
+  <si>
+    <t>The number of this type of item within this packaging or for continuous items such as liquids it is the quantity (for example 25ml). See also PackagedProductDefinition.containedItemQuantity (especially the long definition).</t>
   </si>
   <si>
     <t>Manufactured Item.Manufactured Item Quantity</t>
@@ -1782,7 +1807,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.09765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="78.83984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -1793,8 +1818,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="112.23828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="112.23828125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2564,7 +2589,7 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>96</v>
@@ -2576,19 +2601,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2607,16 +2632,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2666,7 +2691,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2675,7 +2700,7 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -2687,19 +2712,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2718,16 +2743,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2777,7 +2802,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2789,7 +2814,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2798,19 +2823,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2829,19 +2854,19 @@
         <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2890,7 +2915,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2902,7 +2927,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2911,15 +2936,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2942,13 +2967,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2999,7 +3024,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3014,10 +3039,10 @@
         <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -3025,10 +3050,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3054,10 +3079,10 @@
         <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3108,7 +3133,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3117,7 +3142,7 @@
         <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -3129,19 +3154,19 @@
         <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3160,16 +3185,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3207,19 +3232,19 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3231,7 +3256,7 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -3240,15 +3265,15 @@
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3274,16 +3299,16 @@
         <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -3308,11 +3333,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3330,7 +3357,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3351,15 +3378,15 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3382,19 +3409,19 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3419,11 +3446,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3441,7 +3470,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3462,15 +3491,15 @@
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3496,16 +3525,16 @@
         <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3518,7 +3547,7 @@
         <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>74</v>
@@ -3530,11 +3559,11 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3552,7 +3581,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3573,15 +3602,15 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3604,16 +3633,16 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3627,7 +3656,7 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3663,7 +3692,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3672,7 +3701,7 @@
         <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>96</v>
@@ -3684,15 +3713,15 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3715,13 +3744,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3772,7 +3801,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3793,15 +3822,15 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3824,16 +3853,16 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3883,7 +3912,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3904,15 +3933,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3935,13 +3964,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3956,7 +3985,7 @@
         <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>74</v>
@@ -3992,7 +4021,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4007,10 +4036,10 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -4018,10 +4047,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4044,13 +4073,13 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4077,11 +4106,11 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -4099,7 +4128,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4114,10 +4143,10 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4125,10 +4154,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4151,13 +4180,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4208,7 +4237,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4223,10 +4252,10 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4234,10 +4263,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4260,13 +4289,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4281,7 +4310,7 @@
         <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>74</v>
@@ -4293,13 +4322,13 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -4317,7 +4346,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4332,10 +4361,10 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4343,10 +4372,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4369,13 +4398,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4390,7 +4419,7 @@
         <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>74</v>
@@ -4426,7 +4455,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4441,10 +4470,10 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4452,10 +4481,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4478,13 +4507,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4535,7 +4564,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4550,10 +4579,10 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4561,10 +4590,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4587,13 +4616,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4644,7 +4673,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4659,10 +4688,10 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4670,10 +4699,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4696,13 +4725,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4753,7 +4782,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4768,10 +4797,10 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4779,10 +4808,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4805,13 +4834,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4862,7 +4891,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4871,7 +4900,7 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
@@ -4883,19 +4912,19 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4914,16 +4943,16 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4973,7 +5002,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4985,7 +5014,7 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4994,19 +5023,19 @@
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5025,19 +5054,19 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5086,7 +5115,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5098,7 +5127,7 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -5107,15 +5136,15 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5138,13 +5167,13 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5171,11 +5200,11 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5193,7 +5222,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5208,10 +5237,10 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5219,10 +5248,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5245,13 +5274,13 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5278,11 +5307,11 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5300,7 +5329,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5315,10 +5344,10 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5326,10 +5355,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5352,13 +5381,13 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5409,7 +5438,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5424,10 +5453,10 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5435,10 +5464,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5464,10 +5493,10 @@
         <v>86</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5518,7 +5547,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5527,7 +5556,7 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>74</v>
@@ -5539,19 +5568,19 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5570,16 +5599,16 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5617,19 +5646,19 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5641,7 +5670,7 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5650,19 +5679,19 @@
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5681,19 +5710,19 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5742,7 +5771,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5754,7 +5783,7 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5763,15 +5792,15 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5794,13 +5823,13 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5827,11 +5856,11 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5849,7 +5878,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5875,10 +5904,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5901,13 +5930,13 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5958,7 +5987,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5984,10 +6013,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6010,13 +6039,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6043,11 +6072,11 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6065,7 +6094,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>84</v>
@@ -6091,10 +6120,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6117,13 +6146,13 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6174,7 +6203,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6200,10 +6229,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6226,13 +6255,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6283,7 +6312,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6309,10 +6338,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6335,13 +6364,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6349,7 +6378,7 @@
         <v>74</v>
       </c>
       <c r="Q42" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>74</v>
@@ -6394,7 +6423,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6409,10 +6438,10 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6420,10 +6449,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6446,13 +6475,13 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6503,7 +6532,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6518,10 +6547,10 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6529,10 +6558,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6555,13 +6584,13 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6612,7 +6641,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6627,10 +6656,10 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6638,10 +6667,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6664,13 +6693,13 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6721,7 +6750,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6736,10 +6765,10 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6747,10 +6776,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6773,13 +6802,13 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6830,7 +6859,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6839,7 +6868,7 @@
         <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
@@ -6851,19 +6880,19 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6882,16 +6911,16 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6941,7 +6970,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6953,7 +6982,7 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6962,19 +6991,19 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6993,19 +7022,19 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7054,7 +7083,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7066,7 +7095,7 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -7075,15 +7104,15 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7106,13 +7135,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7163,7 +7192,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7178,10 +7207,10 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7189,10 +7218,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7218,10 +7247,10 @@
         <v>86</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7272,7 +7301,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7281,7 +7310,7 @@
         <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
@@ -7293,19 +7322,19 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7324,16 +7353,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7371,19 +7400,19 @@
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7395,7 +7424,7 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7404,15 +7433,15 @@
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7438,16 +7467,16 @@
         <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7472,11 +7501,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7494,7 +7525,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7515,15 +7546,15 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7546,19 +7577,19 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7583,11 +7614,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7605,7 +7638,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7626,15 +7659,15 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7660,16 +7693,16 @@
         <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7682,7 +7715,7 @@
         <v>74</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>74</v>
@@ -7694,11 +7727,11 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7716,7 +7749,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7737,15 +7770,15 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7768,16 +7801,16 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7791,7 +7824,7 @@
         <v>74</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>74</v>
@@ -7827,7 +7860,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7836,7 +7869,7 @@
         <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>96</v>
@@ -7848,15 +7881,15 @@
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7879,13 +7912,13 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7936,7 +7969,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7957,15 +7990,15 @@
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7988,16 +8021,16 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8047,7 +8080,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8068,15 +8101,15 @@
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8099,13 +8132,13 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8132,11 +8165,11 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8154,7 +8187,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8169,10 +8202,10 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8180,10 +8213,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8206,13 +8239,13 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8220,7 +8253,7 @@
         <v>74</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>74</v>
@@ -8265,7 +8298,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8280,10 +8313,10 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8291,10 +8324,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8317,13 +8350,13 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8374,7 +8407,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8389,10 +8422,10 @@
         <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8400,10 +8433,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8426,13 +8459,13 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8459,11 +8492,11 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8481,7 +8514,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8496,10 +8529,10 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>338</v>
+        <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8507,10 +8540,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8533,13 +8566,13 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8566,13 +8599,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8590,7 +8623,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8605,10 +8638,10 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8616,10 +8649,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8642,13 +8675,13 @@
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8699,7 +8732,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8714,10 +8747,10 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8725,10 +8758,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8754,10 +8787,10 @@
         <v>86</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8808,7 +8841,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8817,7 +8850,7 @@
         <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
@@ -8829,19 +8862,19 @@
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8860,16 +8893,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8907,19 +8940,19 @@
         <v>74</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -8931,7 +8964,7 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -8940,19 +8973,19 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8971,19 +9004,19 @@
         <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9032,7 +9065,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9044,7 +9077,7 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -9053,15 +9086,15 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9084,13 +9117,13 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9117,11 +9150,11 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9139,7 +9172,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9165,10 +9198,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9191,13 +9224,13 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9236,17 +9269,17 @@
         <v>74</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9272,13 +9305,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="B69" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="C69" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -9300,13 +9333,13 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9357,7 +9390,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9383,10 +9416,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9412,10 +9445,10 @@
         <v>86</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9466,7 +9499,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9475,7 +9508,7 @@
         <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
@@ -9487,19 +9520,19 @@
         <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9518,16 +9551,16 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9565,19 +9598,19 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9589,7 +9622,7 @@
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
@@ -9598,15 +9631,15 @@
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9629,19 +9662,19 @@
         <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9690,7 +9723,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9711,15 +9744,15 @@
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9745,20 +9778,20 @@
         <v>104</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q73" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>74</v>
@@ -9779,11 +9812,13 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y73" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="Z73" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -9801,7 +9836,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9822,15 +9857,15 @@
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9853,17 +9888,17 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -9912,7 +9947,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -9933,15 +9968,15 @@
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9967,14 +10002,14 @@
         <v>98</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10023,7 +10058,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10032,7 +10067,7 @@
         <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>96</v>
@@ -10044,15 +10079,15 @@
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10078,16 +10113,16 @@
         <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10112,11 +10147,11 @@
         <v>74</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>74</v>
@@ -10134,7 +10169,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10143,7 +10178,7 @@
         <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>74</v>
+        <v>409</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>96</v>
@@ -10155,15 +10190,15 @@
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10186,13 +10221,13 @@
         <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10219,11 +10254,11 @@
         <v>74</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>74</v>
@@ -10241,7 +10276,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10267,10 +10302,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10293,13 +10328,13 @@
         <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10350,7 +10385,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10365,10 +10400,10 @@
         <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10376,10 +10411,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10402,13 +10437,13 @@
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10459,7 +10494,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10474,10 +10509,10 @@
         <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>74</v>
@@ -10485,10 +10520,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10511,13 +10546,13 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10568,7 +10603,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10577,7 +10612,7 @@
         <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>74</v>
@@ -10589,19 +10624,19 @@
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10620,16 +10655,16 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10679,7 +10714,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -10691,7 +10726,7 @@
         <v>74</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>74</v>
@@ -10700,19 +10735,19 @@
         <v>74</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10731,19 +10766,19 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -10792,7 +10827,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -10804,7 +10839,7 @@
         <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10813,15 +10848,15 @@
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10844,13 +10879,13 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10877,13 +10912,13 @@
         <v>74</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>74</v>
@@ -10901,7 +10936,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>84</v>
@@ -10916,10 +10951,10 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>434</v>
+        <v>74</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>74</v>
@@ -10927,10 +10962,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10953,13 +10988,13 @@
         <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11010,7 +11045,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11025,10 +11060,10 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>439</v>
+        <v>74</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>74</v>
+        <v>446</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>74</v>
@@ -11036,10 +11071,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11062,13 +11097,13 @@
         <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11119,7 +11154,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11134,10 +11169,10 @@
         <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>443</v>
+        <v>74</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>74</v>
+        <v>450</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>74</v>
@@ -11145,10 +11180,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11171,13 +11206,13 @@
         <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11228,7 +11263,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11237,7 +11272,7 @@
         <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>74</v>
@@ -11249,19 +11284,19 @@
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11280,16 +11315,16 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11339,7 +11374,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11351,7 +11386,7 @@
         <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>74</v>
@@ -11360,19 +11395,19 @@
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11391,19 +11426,19 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>74</v>
@@ -11452,7 +11487,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11464,7 +11499,7 @@
         <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>
@@ -11473,15 +11508,15 @@
         <v>74</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11504,13 +11539,13 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11561,7 +11596,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>84</v>
@@ -11576,10 +11611,10 @@
         <v>96</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>451</v>
+        <v>74</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>74</v>
@@ -11587,10 +11622,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11613,13 +11648,13 @@
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11670,7 +11705,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -11685,10 +11720,10 @@
         <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>74</v>
+        <v>462</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>74</v>
@@ -11696,10 +11731,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11725,10 +11760,10 @@
         <v>77</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11779,7 +11814,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -11794,10 +11829,10 @@
         <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>74</v>
+        <v>466</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>74</v>
@@ -11805,10 +11840,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11834,10 +11869,10 @@
         <v>77</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11888,7 +11923,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -11903,10 +11938,10 @@
         <v>96</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
